--- a/IMS/wwwroot/import/customer/Template.xlsx
+++ b/IMS/wwwroot/import/customer/Template.xlsx
@@ -63,10 +63,10 @@
     <t>Ghi Chú</t>
   </si>
   <si>
+    <t>Thêm 1U</t>
+  </si>
+  <si>
     <t>Thuê Chỗ</t>
-  </si>
-  <si>
-    <t>Thêm 1U</t>
   </si>
   <si>
     <t>Công suất 100</t>
@@ -106,12 +106,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="14" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
@@ -444,6 +441,9 @@
         <v>13</v>
       </c>
       <c r="O1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -451,7 +451,6 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="M2" s="2"/>
     </row>
     <row r="3">
       <c r="I3" s="1"/>

--- a/IMS/wwwroot/import/customer/Template.xlsx
+++ b/IMS/wwwroot/import/customer/Template.xlsx
@@ -63,10 +63,10 @@
     <t>Ghi Chú</t>
   </si>
   <si>
+    <t>Thuê Chỗ</t>
+  </si>
+  <si>
     <t>Thêm 1U</t>
-  </si>
-  <si>
-    <t>Thuê Chỗ</t>
   </si>
   <si>
     <t>Công suất 100</t>
@@ -438,10 +438,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="P1" s="0" t="s">
         <v>14</v>
